--- a/Fase 1/Evidencias Grupales/PLANILLA DE EVALUACION FASE 1.xlsx
+++ b/Fase 1/Evidencias Grupales/PLANILLA DE EVALUACION FASE 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/ge_galan_profesor_duoc_cl/Documents/2024-2/Clases/CAPSTONE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmora\Desktop\Evaluaciones\PTY4614\Evaluacion N° 1\004D\GRUPO 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91B80DAC-7CE7-4715-8162-B9D290CDE525}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D7AB4-F794-4696-B73E-339E8C7CFC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>PUNTOS</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>El desarrollo del plan de trabajo no permite determinar si el logro de los objetivos propuestos del proyecto son alcanzables en los tiempos para su desarrollo y no demuestran hitos claros para demostrar el estado de avance</t>
+  </si>
+  <si>
+    <t>IGNACIO EDUARDO AGUIRRE CAMUS</t>
+  </si>
+  <si>
+    <t>DANIEL CARLOS CAMPOS KIRKMAN</t>
   </si>
 </sst>
 </file>
@@ -1055,6 +1061,65 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,69 +1153,10 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K929"/>
+  <dimension ref="A2:K920"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1509,7 +1515,7 @@
       <c r="D2" s="2">
         <v>0.25</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="67">
         <v>1</v>
       </c>
     </row>
@@ -1523,13 +1529,15 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="C4" s="6">
         <f>EVALUACION1!$C$24</f>
         <v>7</v>
@@ -1538,7 +1546,7 @@
         <f>$C$35</f>
         <v>7</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="51">
         <f>C4*C$2+D4*D$2</f>
         <v>7</v>
       </c>
@@ -1548,7 +1556,9 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="C5" s="6">
         <f>EVALUACION1!$C$24</f>
         <v>7</v>
@@ -1557,8 +1567,8 @@
         <f>C47</f>
         <v>7</v>
       </c>
-      <c r="E5" s="82">
-        <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
+      <c r="E5" s="51">
+        <f t="shared" ref="E5" si="0">C5*C$2+D5*D$2</f>
         <v>7</v>
       </c>
       <c r="G5" s="1"/>
@@ -1568,64 +1578,55 @@
         <v>3</v>
       </c>
       <c r="B6" s="38"/>
-      <c r="C6" s="6">
-        <f>EVALUACION1!$C$24</f>
-        <v>7</v>
-      </c>
-      <c r="D6" s="6">
-        <f>C58</f>
-        <v>7</v>
-      </c>
-      <c r="E6" s="82">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="51"/>
       <c r="G6" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="66"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="65" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="65" t="s">
+      <c r="E12" s="64"/>
+      <c r="F12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="71" t="s">
+      <c r="G12" s="64"/>
+      <c r="H12" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="65" t="s">
+      <c r="I12" s="64"/>
+      <c r="J12" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="66"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="41" t="str">
         <f>RUBRICA!A5</f>
         <v>1. Describe brevemente en qué consiste el Proyecto APT, justificando su relevancia para el campo laboral de su carrera.</v>
@@ -1634,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="17" t="str">
-        <f t="shared" ref="D13:D17" si="1">IF($C13=CL,"X","")</f>
+        <f t="shared" ref="D13:D16" si="1">IF($C13=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E13" s="17">
@@ -1642,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" ref="F13:F17" si="2">IF($C13=L,"X","")</f>
+        <f t="shared" ref="F13:F16" si="2">IF($C13=L,"X","")</f>
         <v/>
       </c>
       <c r="G13" s="17" t="str">
@@ -1650,7 +1651,7 @@
         <v/>
       </c>
       <c r="H13" s="17" t="str">
-        <f t="shared" ref="H13:H17" si="3">IF($C13=ML,"X","")</f>
+        <f t="shared" ref="H13:H16" si="3">IF($C13=ML,"X","")</f>
         <v/>
       </c>
       <c r="I13" s="17" t="str">
@@ -1658,16 +1659,16 @@
         <v/>
       </c>
       <c r="J13" s="17" t="str">
-        <f t="shared" ref="J13:J17" si="4">IF($C13=NL,"X","")</f>
+        <f t="shared" ref="J13:J16" si="4">IF($C13=NL,"X","")</f>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
-        <f t="shared" ref="K13:K17" si="5">IF($J13="X",0,"")</f>
+        <f t="shared" ref="K13:K16" si="5">IF($J13="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="41" t="str">
         <f>RUBRICA!A6</f>
         <v>2. Relaciona el Proyecto APT con las competencias del perfil de egreso de su Plan de Estudio.</v>
@@ -1709,7 +1710,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="41" t="str">
         <f>RUBRICA!A8</f>
         <v xml:space="preserve">4.  Argumenta por qué el proyecto es factible de realizarse en el marco de la asignatura. </v>
@@ -1751,7 +1752,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="41" t="str">
         <f>RUBRICA!A9</f>
         <v xml:space="preserve">5. Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar. </v>
@@ -1793,7 +1794,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="41" t="str">
         <f>RUBRICA!A10</f>
         <v>6. Propone una metodología de trabajo que permite alcanzar los objetivos propuestos y es pertinente con los requerimientos disciplinares.</v>
@@ -1802,40 +1803,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="17" t="str">
-        <f>IF($C17=CL,"X","")</f>
+        <f t="shared" ref="D17:D22" si="12">IF($C17=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" ref="E17" si="12">IF(D17="X",100*0.1,"")</f>
+        <f t="shared" ref="E17" si="13">IF(D17="X",100*0.1,"")</f>
         <v>10</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f>IF($C17=L,"X","")</f>
+        <f t="shared" ref="F17:F22" si="14">IF($C17=L,"X","")</f>
         <v/>
       </c>
       <c r="G17" s="17" t="str">
-        <f t="shared" ref="G17" si="13">IF(F17="X",60*0.1,"")</f>
+        <f t="shared" ref="G17" si="15">IF(F17="X",60*0.1,"")</f>
         <v/>
       </c>
       <c r="H17" s="17" t="str">
-        <f>IF($C17=ML,"X","")</f>
+        <f t="shared" ref="H17:H22" si="16">IF($C17=ML,"X","")</f>
         <v/>
       </c>
       <c r="I17" s="17" t="str">
-        <f t="shared" ref="I17" si="14">IF(H17="X",30*0.1,"")</f>
+        <f t="shared" ref="I17" si="17">IF(H17="X",30*0.1,"")</f>
         <v/>
       </c>
       <c r="J17" s="17" t="str">
-        <f>IF($C17=NL,"X","")</f>
+        <f t="shared" ref="J17:J22" si="18">IF($C17=NL,"X","")</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
-        <f t="shared" ref="K17:K22" si="15">IF($J17="X",0,"")</f>
+        <f t="shared" ref="K17:K22" si="19">IF($J17="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="41" t="str">
         <f>RUBRICA!A11</f>
         <v xml:space="preserve">7. Establece un plan de trabajo para su proyecto APT considerando los recursos, duración, facilitadores y obstaculizadores en el desarrollo de las actividades. </v>
@@ -1844,40 +1845,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="17" t="str">
-        <f>IF($C18=CL,"X","")</f>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" ref="E18:E19" si="16">IF(D18="X",100*0.1,"")</f>
+        <f t="shared" ref="E18" si="20">IF(D18="X",100*0.1,"")</f>
         <v>10</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f>IF($C18=L,"X","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G18" s="17" t="str">
-        <f t="shared" ref="G18:G19" si="17">IF(F18="X",60*0.1,"")</f>
+        <f t="shared" ref="G18" si="21">IF(F18="X",60*0.1,"")</f>
         <v/>
       </c>
       <c r="H18" s="17" t="str">
-        <f>IF($C18=ML,"X","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I18" s="17" t="str">
-        <f t="shared" ref="I18:I19" si="18">IF(H18="X",30*0.1,"")</f>
+        <f t="shared" ref="I18" si="22">IF(H18="X",30*0.1,"")</f>
         <v/>
       </c>
       <c r="J18" s="17" t="str">
-        <f>IF($C18=NL,"X","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="41" t="str">
         <f>RUBRICA!A12</f>
         <v>8. Determina evidencias, justificando cómo estas dan cuenta del logro de las actividades del Proyecto APT.</v>
@@ -1886,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="17" t="str">
-        <f>IF($C19=CL,"X","")</f>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="E19" s="17">
@@ -1894,32 +1895,32 @@
         <v>5</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f>IF($C19=L,"X","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G19" s="17" t="str">
-        <f t="shared" ref="G19" si="19">IF(F19="X",60*0.05,"")</f>
+        <f t="shared" ref="G19" si="23">IF(F19="X",60*0.05,"")</f>
         <v/>
       </c>
       <c r="H19" s="17" t="str">
-        <f>IF($C19=ML,"X","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I19" s="17" t="str">
-        <f t="shared" ref="I19" si="20">IF(H19="X",30*0.05,"")</f>
+        <f t="shared" ref="I19" si="24">IF(H19="X",30*0.05,"")</f>
         <v/>
       </c>
       <c r="J19" s="17" t="str">
-        <f>IF($C19=NL,"X","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="41" t="str">
         <f>RUBRICA!A13</f>
         <v xml:space="preserve">9. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
@@ -1928,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="17" t="str">
-        <f>IF($C20=CL,"X","")</f>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="E20" s="17">
@@ -1936,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f>IF($C20=L,"X","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G20" s="17" t="str">
@@ -1944,7 +1945,7 @@
         <v/>
       </c>
       <c r="H20" s="17" t="str">
-        <f>IF($C20=ML,"X","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I20" s="17" t="str">
@@ -1952,16 +1953,16 @@
         <v/>
       </c>
       <c r="J20" s="17" t="str">
-        <f>IF($C20=NL,"X","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="41" t="str">
         <f>RUBRICA!A14</f>
         <v>10. Cumple completando el contenido del informe de presentación del proyecto de acuerdo con la plantilla entregada.</v>
@@ -1970,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="17" t="str">
-        <f>IF($C21=CL,"X","")</f>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="E21" s="17">
@@ -1978,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f>IF($C21=L,"X","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G21" s="17" t="str">
@@ -1986,7 +1987,7 @@
         <v/>
       </c>
       <c r="H21" s="17" t="str">
-        <f>IF($C21=ML,"X","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I21" s="17" t="str">
@@ -1994,16 +1995,16 @@
         <v/>
       </c>
       <c r="J21" s="17" t="str">
-        <f>IF($C21=NL,"X","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+    <row r="22" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="70"/>
       <c r="B22" s="41" t="str">
         <f>RUBRICA!A16</f>
         <v>12. Desarrolla un plan de trabajo que permita del logro de los objetivos propuestos del proyecto de 
@@ -2013,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="17" t="str">
-        <f>IF($C22=CL,"X","")</f>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="E22" s="17">
@@ -2021,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f>IF($C22=L,"X","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G22" s="17" t="str">
@@ -2029,7 +2030,7 @@
         <v/>
       </c>
       <c r="H22" s="17" t="str">
-        <f>IF($C22=ML,"X","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I22" s="17" t="str">
@@ -2037,16 +2038,16 @@
         <v/>
       </c>
       <c r="J22" s="17" t="str">
-        <f>IF($C22=NL,"X","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="40" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2077,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="43" t="s">
         <v>16</v>
       </c>
@@ -2088,82 +2089,82 @@
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="55" t="str">
         <f>$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61"/>
+        <v>IGNACIO EDUARDO AGUIRRE CAMUS</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="66"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="65" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="65" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="65" t="s">
+      <c r="G30" s="64"/>
+      <c r="H30" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="65" t="s">
+      <c r="I30" s="64"/>
+      <c r="J30" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="41" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2172,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="17" t="str">
-        <f t="shared" ref="D31:D32" si="21">IF($C31=CL,"X","")</f>
+        <f t="shared" ref="D31:D32" si="25">IF($C31=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E31" s="17">
@@ -2180,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" ref="F31:F32" si="22">IF($C31=L,"X","")</f>
+        <f t="shared" ref="F31:F32" si="26">IF($C31=L,"X","")</f>
         <v/>
       </c>
       <c r="G31" s="17" t="str">
@@ -2188,7 +2189,7 @@
         <v/>
       </c>
       <c r="H31" s="17" t="str">
-        <f t="shared" ref="H31:H32" si="23">IF($C31=ML,"X","")</f>
+        <f t="shared" ref="H31:H32" si="27">IF($C31=ML,"X","")</f>
         <v/>
       </c>
       <c r="I31" s="17" t="str">
@@ -2196,16 +2197,16 @@
         <v/>
       </c>
       <c r="J31" s="17" t="str">
-        <f t="shared" ref="J31:J32" si="24">IF($C31=NL,"X","")</f>
+        <f t="shared" ref="J31:J32" si="28">IF($C31=NL,"X","")</f>
         <v/>
       </c>
       <c r="K31" s="17" t="str">
-        <f t="shared" ref="K31:K32" si="25">IF($J31="X",0,"")</f>
+        <f t="shared" ref="K31:K32" si="29">IF($J31="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="41" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2214,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>X</v>
       </c>
       <c r="E32" s="17">
@@ -2222,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G32" s="17" t="str">
@@ -2230,7 +2231,7 @@
         <v/>
       </c>
       <c r="H32" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I32" s="17" t="str">
@@ -2238,16 +2239,16 @@
         <v/>
       </c>
       <c r="J32" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K32" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="41" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
@@ -2289,7 +2290,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="22" t="s">
         <v>17</v>
       </c>
@@ -2304,22 +2305,22 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20">
-        <f t="shared" ref="G34:K34" si="26">SUM(G31:G33)</f>
+        <f t="shared" ref="G34:K34" si="30">SUM(G31:G33)</f>
         <v>0</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="18" t="s">
         <v>16</v>
       </c>
@@ -2338,82 +2339,82 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="55" t="str">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61"/>
+        <v>DANIEL CARLOS CAMPOS KIRKMAN</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="66"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="65" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="65" t="s">
+      <c r="E42" s="64"/>
+      <c r="F42" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="65" t="s">
+      <c r="G42" s="64"/>
+      <c r="H42" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="65" t="s">
+      <c r="I42" s="64"/>
+      <c r="J42" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="66"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="41" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2422,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="17" t="str">
-        <f t="shared" ref="D43:D44" si="27">IF($C43=CL,"X","")</f>
+        <f t="shared" ref="D43:D44" si="31">IF($C43=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E43" s="17">
@@ -2430,7 +2431,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" ref="F43:F44" si="28">IF($C43=L,"X","")</f>
+        <f t="shared" ref="F43:F44" si="32">IF($C43=L,"X","")</f>
         <v/>
       </c>
       <c r="G43" s="17" t="str">
@@ -2438,7 +2439,7 @@
         <v/>
       </c>
       <c r="H43" s="17" t="str">
-        <f t="shared" ref="H43:H44" si="29">IF($C43=ML,"X","")</f>
+        <f t="shared" ref="H43:H44" si="33">IF($C43=ML,"X","")</f>
         <v/>
       </c>
       <c r="I43" s="17" t="str">
@@ -2446,16 +2447,16 @@
         <v/>
       </c>
       <c r="J43" s="17" t="str">
-        <f t="shared" ref="J43:J44" si="30">IF($C43=NL,"X","")</f>
+        <f t="shared" ref="J43:J44" si="34">IF($C43=NL,"X","")</f>
         <v/>
       </c>
       <c r="K43" s="17" t="str">
-        <f t="shared" ref="K43:K44" si="31">IF($J43="X",0,"")</f>
+        <f t="shared" ref="K43:K44" si="35">IF($J43="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="41" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2464,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>X</v>
       </c>
       <c r="E44" s="17">
@@ -2472,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G44" s="17" t="str">
@@ -2480,7 +2481,7 @@
         <v/>
       </c>
       <c r="H44" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I44" s="17" t="str">
@@ -2488,16 +2489,16 @@
         <v/>
       </c>
       <c r="J44" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K44" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="41" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
@@ -2539,7 +2540,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="22" t="s">
         <v>17</v>
       </c>
@@ -2554,22 +2555,22 @@
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20">
-        <f t="shared" ref="G46" si="32">SUM(G43:G45)</f>
+        <f t="shared" ref="G46" si="36">SUM(G43:G45)</f>
         <v>0</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20">
-        <f t="shared" ref="I46" si="33">SUM(I43:I45)</f>
+        <f t="shared" ref="I46" si="37">SUM(I43:I45)</f>
         <v>0</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="20">
-        <f t="shared" ref="K46" si="34">SUM(K43:K45)</f>
+        <f t="shared" ref="K46" si="38">SUM(K43:K45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="57"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="18" t="s">
         <v>16</v>
       </c>
@@ -2582,272 +2583,28 @@
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="59">
-        <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="61"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
-      <c r="B52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="66"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
-      <c r="B53" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="66"/>
-      <c r="H53" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="66"/>
-      <c r="J53" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="66"/>
-    </row>
-    <row r="54" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="41" t="str">
-        <f>RUBRICA!A7</f>
-        <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="17" t="str">
-        <f t="shared" ref="D54:D55" si="35">IF($C54=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E54" s="17">
-        <f>IF(D54="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F54" s="17" t="str">
-        <f t="shared" ref="F54:F55" si="36">IF($C54=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G54" s="17" t="str">
-        <f>IF(F54="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H54" s="17" t="str">
-        <f t="shared" ref="H54:H55" si="37">IF($C54=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I54" s="17" t="str">
-        <f>IF(H54="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J54" s="17" t="str">
-        <f t="shared" ref="J54:J55" si="38">IF($C54=NL,"X","")</f>
-        <v/>
-      </c>
-      <c r="K54" s="17" t="str">
-        <f t="shared" ref="K54:K55" si="39">IF($J54="X",0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
-      <c r="B55" s="41" t="str">
-        <f>RUBRICA!A15</f>
-        <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="17" t="str">
-        <f t="shared" si="35"/>
-        <v>X</v>
-      </c>
-      <c r="E55" s="17">
-        <f>IF(D55="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F55" s="17" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="G55" s="17" t="str">
-        <f>IF(F55="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H55" s="17" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="I55" s="17" t="str">
-        <f>IF(H55="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J55" s="17" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="K55" s="17" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="68"/>
-      <c r="B56" s="41" t="str">
-        <f>RUBRICA!A17</f>
-        <v>13. Colaboración y trabajo en equipo *</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="17" t="str">
-        <f>IF($C56=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E56" s="17">
-        <f>IF(D56="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F56" s="17" t="str">
-        <f>IF($C56=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G56" s="17" t="str">
-        <f>IF(F56="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H56" s="17" t="str">
-        <f>IF($C56=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I56" s="17" t="str">
-        <f>IF(H56="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="17" t="str">
-        <f>IF($C56=NL,"X","")</f>
-        <v/>
-      </c>
-      <c r="K56" s="17" t="str">
-        <f>IF($J56="X",0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="68"/>
-      <c r="B57" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="19">
-        <f>E57+G57+I57+K57</f>
-        <v>30</v>
-      </c>
-      <c r="D57" s="20">
-        <f>COUNTIF(D55:D56,"X")</f>
-        <v>2</v>
-      </c>
-      <c r="E57" s="20">
-        <f>SUM(E54:E56)</f>
-        <v>30</v>
-      </c>
-      <c r="F57" s="20">
-        <f t="shared" ref="F57" si="40">SUM(F54:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="20">
-        <f t="shared" ref="G57" si="41">SUM(G54:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="20">
-        <f t="shared" ref="H57" si="42">SUM(H54:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="20">
-        <f t="shared" ref="I57" si="43">SUM(I54:I56)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="20">
-        <f t="shared" ref="J57" si="44">SUM(J54:J56)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="20">
-        <f t="shared" ref="K57" si="45">SUM(K54:K56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="57"/>
-      <c r="B58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="21">
-        <f>VLOOKUP(C57,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3704,25 +3461,10 @@
     <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:K40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
+  <mergeCells count="26">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="A39:A47"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="E2:E3"/>
@@ -3739,17 +3481,14 @@
     <mergeCell ref="D29:K29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C50:K51"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:K40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -3767,6 +3506,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E5" unlockedFormula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3774,7 +3516,7 @@
           <x14:formula1>
             <xm:f>'RELEVANCIA-PUNTAJE'!$B$2:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C13:C22 C54:C56 C43:C45 C31:C33</xm:sqref>
+          <xm:sqref>C13:C22 C43:C45 C31:C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3801,25 +3543,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="48" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="74" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="26" t="s">
@@ -3828,19 +3570,19 @@
       <c r="E3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="27">
         <v>-0.3</v>
       </c>
       <c r="E4" s="27">
         <v>0</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="76"/>
     </row>
     <row r="5" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
@@ -3983,7 +3725,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -3998,7 +3740,7 @@
       <c r="E12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="48">
         <v>5</v>
       </c>
     </row>
@@ -4018,27 +3760,27 @@
       <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="49">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="49">
         <v>5</v>
       </c>
     </row>
@@ -4046,7 +3788,7 @@
       <c r="A15" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -4063,19 +3805,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="46" t="s">
         <v>94</v>
       </c>
       <c r="F16" s="31">
@@ -4103,13 +3845,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="33">
         <v>1</v>
       </c>
@@ -4152,7 +3894,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4160,7 +3902,7 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4168,7 +3910,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="52">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4176,7 +3918,7 @@
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="52">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4184,7 +3926,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="52">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4192,7 +3934,7 @@
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="52">
         <v>1.2</v>
       </c>
     </row>
@@ -4200,7 +3942,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="52">
         <v>1.2</v>
       </c>
     </row>
@@ -4208,7 +3950,7 @@
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="52">
         <v>1.3</v>
       </c>
     </row>
@@ -4216,7 +3958,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="52">
         <v>1.3</v>
       </c>
     </row>
@@ -4224,7 +3966,7 @@
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="52">
         <v>1.3</v>
       </c>
     </row>
@@ -4232,7 +3974,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="52">
         <v>1.4</v>
       </c>
     </row>
@@ -4240,7 +3982,7 @@
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="52">
         <v>1.4</v>
       </c>
     </row>
@@ -4248,7 +3990,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="52">
         <v>1.4</v>
       </c>
     </row>
@@ -4256,7 +3998,7 @@
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="52">
         <v>1.5</v>
       </c>
     </row>
@@ -4264,7 +4006,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="52">
         <v>1.5</v>
       </c>
     </row>
@@ -4272,7 +4014,7 @@
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="52">
         <v>1.5</v>
       </c>
     </row>
@@ -4280,7 +4022,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="52">
         <v>1.6</v>
       </c>
     </row>
@@ -4288,7 +4030,7 @@
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="52">
         <v>1.6</v>
       </c>
     </row>
@@ -4296,7 +4038,7 @@
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="52">
         <v>1.6</v>
       </c>
     </row>
@@ -4304,7 +4046,7 @@
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="83">
+      <c r="B21" s="52">
         <v>1.7</v>
       </c>
     </row>
@@ -4312,7 +4054,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="52">
         <v>1.7</v>
       </c>
     </row>
@@ -4320,7 +4062,7 @@
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="52">
         <v>1.8</v>
       </c>
     </row>
@@ -4328,7 +4070,7 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="52">
         <v>1.8</v>
       </c>
     </row>
@@ -4336,7 +4078,7 @@
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="52">
         <v>1.8</v>
       </c>
     </row>
@@ -4344,7 +4086,7 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="52">
         <v>1.9</v>
       </c>
     </row>
@@ -4352,7 +4094,7 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="52">
         <v>1.9</v>
       </c>
     </row>
@@ -4360,7 +4102,7 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="83">
+      <c r="B28" s="52">
         <v>1.9</v>
       </c>
     </row>
@@ -4368,7 +4110,7 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="52">
         <v>2</v>
       </c>
     </row>
@@ -4376,7 +4118,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="52">
         <v>2</v>
       </c>
     </row>
@@ -4384,7 +4126,7 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="52">
         <v>2</v>
       </c>
     </row>
@@ -4392,7 +4134,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="52">
         <v>2.1</v>
       </c>
     </row>
@@ -4400,7 +4142,7 @@
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="83">
+      <c r="B33" s="52">
         <v>2.1</v>
       </c>
     </row>
@@ -4408,7 +4150,7 @@
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="83">
+      <c r="B34" s="52">
         <v>2.1</v>
       </c>
     </row>
@@ -4416,7 +4158,7 @@
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="83">
+      <c r="B35" s="52">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4424,7 +4166,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="83">
+      <c r="B36" s="52">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4432,7 +4174,7 @@
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="83">
+      <c r="B37" s="52">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4440,7 +4182,7 @@
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="83">
+      <c r="B38" s="52">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4448,7 +4190,7 @@
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="83">
+      <c r="B39" s="52">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4456,7 +4198,7 @@
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="83">
+      <c r="B40" s="52">
         <v>2.4</v>
       </c>
     </row>
@@ -4464,7 +4206,7 @@
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="52">
         <v>2.4</v>
       </c>
     </row>
@@ -4472,7 +4214,7 @@
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="83">
+      <c r="B42" s="52">
         <v>2.4</v>
       </c>
     </row>
@@ -4480,7 +4222,7 @@
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="83">
+      <c r="B43" s="52">
         <v>2.5</v>
       </c>
     </row>
@@ -4488,7 +4230,7 @@
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="83">
+      <c r="B44" s="52">
         <v>2.5</v>
       </c>
     </row>
@@ -4496,7 +4238,7 @@
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="83">
+      <c r="B45" s="52">
         <v>2.5</v>
       </c>
     </row>
@@ -4504,7 +4246,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="83">
+      <c r="B46" s="52">
         <v>2.6</v>
       </c>
     </row>
@@ -4512,7 +4254,7 @@
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="83">
+      <c r="B47" s="52">
         <v>2.6</v>
       </c>
     </row>
@@ -4520,7 +4262,7 @@
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="83">
+      <c r="B48" s="52">
         <v>2.6</v>
       </c>
     </row>
@@ -4528,7 +4270,7 @@
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="83">
+      <c r="B49" s="52">
         <v>2.7</v>
       </c>
     </row>
@@ -4536,7 +4278,7 @@
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="83">
+      <c r="B50" s="52">
         <v>2.7</v>
       </c>
     </row>
@@ -4544,7 +4286,7 @@
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="83">
+      <c r="B51" s="52">
         <v>2.8</v>
       </c>
     </row>
@@ -4552,7 +4294,7 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="83">
+      <c r="B52" s="52">
         <v>2.8</v>
       </c>
     </row>
@@ -4560,7 +4302,7 @@
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="83">
+      <c r="B53" s="52">
         <v>2.8</v>
       </c>
     </row>
@@ -4568,7 +4310,7 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="83">
+      <c r="B54" s="52">
         <v>2.9</v>
       </c>
     </row>
@@ -4576,7 +4318,7 @@
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="83">
+      <c r="B55" s="52">
         <v>2.9</v>
       </c>
     </row>
@@ -4584,7 +4326,7 @@
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="83">
+      <c r="B56" s="52">
         <v>2.9</v>
       </c>
     </row>
@@ -4592,7 +4334,7 @@
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="83">
+      <c r="B57" s="52">
         <v>3</v>
       </c>
     </row>
@@ -4600,7 +4342,7 @@
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="83">
+      <c r="B58" s="52">
         <v>3</v>
       </c>
     </row>
@@ -4608,7 +4350,7 @@
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="83">
+      <c r="B59" s="52">
         <v>3</v>
       </c>
     </row>
@@ -4616,7 +4358,7 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="83">
+      <c r="B60" s="52">
         <v>3.1</v>
       </c>
     </row>
@@ -4624,7 +4366,7 @@
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="83">
+      <c r="B61" s="52">
         <v>3.1</v>
       </c>
     </row>
@@ -4632,7 +4374,7 @@
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="83">
+      <c r="B62" s="52">
         <v>3.1</v>
       </c>
     </row>
@@ -4640,7 +4382,7 @@
       <c r="A63">
         <v>30.5</v>
       </c>
-      <c r="B63" s="83">
+      <c r="B63" s="52">
         <v>3.2</v>
       </c>
     </row>
@@ -4648,7 +4390,7 @@
       <c r="A64">
         <v>31</v>
       </c>
-      <c r="B64" s="83">
+      <c r="B64" s="52">
         <v>3.2</v>
       </c>
     </row>
@@ -4656,7 +4398,7 @@
       <c r="A65">
         <v>31.5</v>
       </c>
-      <c r="B65" s="83">
+      <c r="B65" s="52">
         <v>3.3</v>
       </c>
     </row>
@@ -4664,7 +4406,7 @@
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66" s="83">
+      <c r="B66" s="52">
         <v>3.3</v>
       </c>
     </row>
@@ -4672,7 +4414,7 @@
       <c r="A67">
         <v>32.5</v>
       </c>
-      <c r="B67" s="83">
+      <c r="B67" s="52">
         <v>3.3</v>
       </c>
     </row>
@@ -4680,7 +4422,7 @@
       <c r="A68">
         <v>33</v>
       </c>
-      <c r="B68" s="83">
+      <c r="B68" s="52">
         <v>3.4</v>
       </c>
     </row>
@@ -4688,7 +4430,7 @@
       <c r="A69">
         <v>33.5</v>
       </c>
-      <c r="B69" s="83">
+      <c r="B69" s="52">
         <v>3.4</v>
       </c>
     </row>
@@ -4696,7 +4438,7 @@
       <c r="A70">
         <v>34</v>
       </c>
-      <c r="B70" s="83">
+      <c r="B70" s="52">
         <v>3.4</v>
       </c>
     </row>
@@ -4704,7 +4446,7 @@
       <c r="A71">
         <v>34.5</v>
       </c>
-      <c r="B71" s="83">
+      <c r="B71" s="52">
         <v>3.5</v>
       </c>
     </row>
@@ -4712,7 +4454,7 @@
       <c r="A72">
         <v>35</v>
       </c>
-      <c r="B72" s="83">
+      <c r="B72" s="52">
         <v>3.5</v>
       </c>
     </row>
@@ -4720,7 +4462,7 @@
       <c r="A73">
         <v>35.5</v>
       </c>
-      <c r="B73" s="83">
+      <c r="B73" s="52">
         <v>3.5</v>
       </c>
     </row>
@@ -4728,7 +4470,7 @@
       <c r="A74">
         <v>36</v>
       </c>
-      <c r="B74" s="83">
+      <c r="B74" s="52">
         <v>3.6</v>
       </c>
     </row>
@@ -4736,7 +4478,7 @@
       <c r="A75">
         <v>36.5</v>
       </c>
-      <c r="B75" s="83">
+      <c r="B75" s="52">
         <v>3.6</v>
       </c>
     </row>
@@ -4744,7 +4486,7 @@
       <c r="A76">
         <v>37</v>
       </c>
-      <c r="B76" s="83">
+      <c r="B76" s="52">
         <v>3.6</v>
       </c>
     </row>
@@ -4752,7 +4494,7 @@
       <c r="A77">
         <v>37.5</v>
       </c>
-      <c r="B77" s="83">
+      <c r="B77" s="52">
         <v>3.7</v>
       </c>
     </row>
@@ -4760,7 +4502,7 @@
       <c r="A78">
         <v>38</v>
       </c>
-      <c r="B78" s="83">
+      <c r="B78" s="52">
         <v>3.7</v>
       </c>
     </row>
@@ -4768,7 +4510,7 @@
       <c r="A79">
         <v>38.5</v>
       </c>
-      <c r="B79" s="83">
+      <c r="B79" s="52">
         <v>3.8</v>
       </c>
     </row>
@@ -4776,7 +4518,7 @@
       <c r="A80">
         <v>39</v>
       </c>
-      <c r="B80" s="83">
+      <c r="B80" s="52">
         <v>3.8</v>
       </c>
     </row>
@@ -4784,7 +4526,7 @@
       <c r="A81">
         <v>39.5</v>
       </c>
-      <c r="B81" s="83">
+      <c r="B81" s="52">
         <v>3.8</v>
       </c>
     </row>
@@ -4792,7 +4534,7 @@
       <c r="A82">
         <v>40</v>
       </c>
-      <c r="B82" s="83">
+      <c r="B82" s="52">
         <v>3.9</v>
       </c>
     </row>
@@ -4800,7 +4542,7 @@
       <c r="A83">
         <v>40.5</v>
       </c>
-      <c r="B83" s="83">
+      <c r="B83" s="52">
         <v>3.9</v>
       </c>
     </row>
@@ -4808,7 +4550,7 @@
       <c r="A84">
         <v>41</v>
       </c>
-      <c r="B84" s="83">
+      <c r="B84" s="52">
         <v>3.9</v>
       </c>
     </row>
@@ -4816,7 +4558,7 @@
       <c r="A85">
         <v>41.5</v>
       </c>
-      <c r="B85" s="83">
+      <c r="B85" s="52">
         <v>4</v>
       </c>
     </row>
@@ -4824,7 +4566,7 @@
       <c r="A86">
         <v>42</v>
       </c>
-      <c r="B86" s="83">
+      <c r="B86" s="52">
         <v>4</v>
       </c>
     </row>
@@ -4832,7 +4574,7 @@
       <c r="A87">
         <v>42.5</v>
       </c>
-      <c r="B87" s="83">
+      <c r="B87" s="52">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4840,7 +4582,7 @@
       <c r="A88">
         <v>43</v>
       </c>
-      <c r="B88" s="83">
+      <c r="B88" s="52">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4848,7 +4590,7 @@
       <c r="A89">
         <v>43.5</v>
       </c>
-      <c r="B89" s="83">
+      <c r="B89" s="52">
         <v>4.2</v>
       </c>
     </row>
@@ -4856,7 +4598,7 @@
       <c r="A90">
         <v>44</v>
       </c>
-      <c r="B90" s="83">
+      <c r="B90" s="52">
         <v>4.2</v>
       </c>
     </row>
@@ -4864,7 +4606,7 @@
       <c r="A91">
         <v>44.5</v>
       </c>
-      <c r="B91" s="83">
+      <c r="B91" s="52">
         <v>4.3</v>
       </c>
     </row>
@@ -4872,7 +4614,7 @@
       <c r="A92">
         <v>45</v>
       </c>
-      <c r="B92" s="83">
+      <c r="B92" s="52">
         <v>4.3</v>
       </c>
     </row>
@@ -4880,7 +4622,7 @@
       <c r="A93">
         <v>45.5</v>
       </c>
-      <c r="B93" s="83">
+      <c r="B93" s="52">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4888,7 +4630,7 @@
       <c r="A94">
         <v>46</v>
       </c>
-      <c r="B94" s="83">
+      <c r="B94" s="52">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4896,7 +4638,7 @@
       <c r="A95">
         <v>46.5</v>
       </c>
-      <c r="B95" s="83">
+      <c r="B95" s="52">
         <v>4.5</v>
       </c>
     </row>
@@ -4904,7 +4646,7 @@
       <c r="A96">
         <v>47</v>
       </c>
-      <c r="B96" s="83">
+      <c r="B96" s="52">
         <v>4.5</v>
       </c>
     </row>
@@ -4912,7 +4654,7 @@
       <c r="A97">
         <v>47.5</v>
       </c>
-      <c r="B97" s="83">
+      <c r="B97" s="52">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4920,7 +4662,7 @@
       <c r="A98">
         <v>48</v>
       </c>
-      <c r="B98" s="83">
+      <c r="B98" s="52">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4928,7 +4670,7 @@
       <c r="A99">
         <v>48.5</v>
       </c>
-      <c r="B99" s="83">
+      <c r="B99" s="52">
         <v>4.7</v>
       </c>
     </row>
@@ -4936,7 +4678,7 @@
       <c r="A100">
         <v>49</v>
       </c>
-      <c r="B100" s="83">
+      <c r="B100" s="52">
         <v>4.8</v>
       </c>
     </row>
@@ -4944,7 +4686,7 @@
       <c r="A101">
         <v>49.5</v>
       </c>
-      <c r="B101" s="83">
+      <c r="B101" s="52">
         <v>4.8</v>
       </c>
     </row>
@@ -4952,7 +4694,7 @@
       <c r="A102">
         <v>50</v>
       </c>
-      <c r="B102" s="83">
+      <c r="B102" s="52">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4960,7 +4702,7 @@
       <c r="A103">
         <v>50.5</v>
       </c>
-      <c r="B103" s="83">
+      <c r="B103" s="52">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4968,7 +4710,7 @@
       <c r="A104">
         <v>51</v>
       </c>
-      <c r="B104" s="83">
+      <c r="B104" s="52">
         <v>5</v>
       </c>
     </row>
@@ -4976,7 +4718,7 @@
       <c r="A105">
         <v>51.5</v>
       </c>
-      <c r="B105" s="83">
+      <c r="B105" s="52">
         <v>5</v>
       </c>
     </row>
@@ -4984,7 +4726,7 @@
       <c r="A106">
         <v>52</v>
       </c>
-      <c r="B106" s="83">
+      <c r="B106" s="52">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4992,7 +4734,7 @@
       <c r="A107">
         <v>52.5</v>
       </c>
-      <c r="B107" s="83">
+      <c r="B107" s="52">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -5000,7 +4742,7 @@
       <c r="A108">
         <v>53</v>
       </c>
-      <c r="B108" s="83">
+      <c r="B108" s="52">
         <v>5.2</v>
       </c>
     </row>
@@ -5008,7 +4750,7 @@
       <c r="A109">
         <v>53.5</v>
       </c>
-      <c r="B109" s="83">
+      <c r="B109" s="52">
         <v>5.2</v>
       </c>
     </row>
@@ -5016,7 +4758,7 @@
       <c r="A110">
         <v>54</v>
       </c>
-      <c r="B110" s="83">
+      <c r="B110" s="52">
         <v>5.3</v>
       </c>
     </row>
@@ -5024,7 +4766,7 @@
       <c r="A111">
         <v>54.5</v>
       </c>
-      <c r="B111" s="83">
+      <c r="B111" s="52">
         <v>5.3</v>
       </c>
     </row>
@@ -5032,7 +4774,7 @@
       <c r="A112">
         <v>55</v>
       </c>
-      <c r="B112" s="83">
+      <c r="B112" s="52">
         <v>5.4</v>
       </c>
     </row>
@@ -5040,7 +4782,7 @@
       <c r="A113">
         <v>55.5</v>
       </c>
-      <c r="B113" s="83">
+      <c r="B113" s="52">
         <v>5.4</v>
       </c>
     </row>
@@ -5048,7 +4790,7 @@
       <c r="A114">
         <v>56</v>
       </c>
-      <c r="B114" s="83">
+      <c r="B114" s="52">
         <v>5.5</v>
       </c>
     </row>
@@ -5056,7 +4798,7 @@
       <c r="A115">
         <v>56.5</v>
       </c>
-      <c r="B115" s="83">
+      <c r="B115" s="52">
         <v>5.6</v>
       </c>
     </row>
@@ -5064,7 +4806,7 @@
       <c r="A116">
         <v>57</v>
       </c>
-      <c r="B116" s="83">
+      <c r="B116" s="52">
         <v>5.6</v>
       </c>
     </row>
@@ -5072,7 +4814,7 @@
       <c r="A117">
         <v>57.5</v>
       </c>
-      <c r="B117" s="83">
+      <c r="B117" s="52">
         <v>5.7</v>
       </c>
     </row>
@@ -5080,7 +4822,7 @@
       <c r="A118">
         <v>58</v>
       </c>
-      <c r="B118" s="83">
+      <c r="B118" s="52">
         <v>5.7</v>
       </c>
     </row>
@@ -5088,7 +4830,7 @@
       <c r="A119">
         <v>58.5</v>
       </c>
-      <c r="B119" s="83">
+      <c r="B119" s="52">
         <v>5.8</v>
       </c>
     </row>
@@ -5096,7 +4838,7 @@
       <c r="A120">
         <v>59</v>
       </c>
-      <c r="B120" s="83">
+      <c r="B120" s="52">
         <v>5.8</v>
       </c>
     </row>
@@ -5104,7 +4846,7 @@
       <c r="A121">
         <v>59.5</v>
       </c>
-      <c r="B121" s="83">
+      <c r="B121" s="52">
         <v>5.9</v>
       </c>
     </row>
@@ -5112,7 +4854,7 @@
       <c r="A122">
         <v>60</v>
       </c>
-      <c r="B122" s="83">
+      <c r="B122" s="52">
         <v>5.9</v>
       </c>
     </row>
@@ -5120,7 +4862,7 @@
       <c r="A123">
         <v>60.5</v>
       </c>
-      <c r="B123" s="83">
+      <c r="B123" s="52">
         <v>6</v>
       </c>
     </row>
@@ -5128,7 +4870,7 @@
       <c r="A124">
         <v>61</v>
       </c>
-      <c r="B124" s="83">
+      <c r="B124" s="52">
         <v>6</v>
       </c>
     </row>
@@ -5136,7 +4878,7 @@
       <c r="A125">
         <v>61.5</v>
       </c>
-      <c r="B125" s="83">
+      <c r="B125" s="52">
         <v>6.1</v>
       </c>
     </row>
@@ -5144,7 +4886,7 @@
       <c r="A126">
         <v>62</v>
       </c>
-      <c r="B126" s="83">
+      <c r="B126" s="52">
         <v>6.1</v>
       </c>
     </row>
@@ -5152,7 +4894,7 @@
       <c r="A127">
         <v>62.5</v>
       </c>
-      <c r="B127" s="83">
+      <c r="B127" s="52">
         <v>6.2</v>
       </c>
     </row>
@@ -5160,7 +4902,7 @@
       <c r="A128">
         <v>63</v>
       </c>
-      <c r="B128" s="83">
+      <c r="B128" s="52">
         <v>6.3</v>
       </c>
     </row>
@@ -5168,7 +4910,7 @@
       <c r="A129">
         <v>63.5</v>
       </c>
-      <c r="B129" s="83">
+      <c r="B129" s="52">
         <v>6.3</v>
       </c>
     </row>
@@ -5176,7 +4918,7 @@
       <c r="A130">
         <v>64</v>
       </c>
-      <c r="B130" s="83">
+      <c r="B130" s="52">
         <v>6.4</v>
       </c>
     </row>
@@ -5184,7 +4926,7 @@
       <c r="A131">
         <v>64.5</v>
       </c>
-      <c r="B131" s="83">
+      <c r="B131" s="52">
         <v>6.4</v>
       </c>
     </row>
@@ -5192,7 +4934,7 @@
       <c r="A132">
         <v>65</v>
       </c>
-      <c r="B132" s="83">
+      <c r="B132" s="52">
         <v>6.5</v>
       </c>
     </row>
@@ -5200,7 +4942,7 @@
       <c r="A133">
         <v>65.5</v>
       </c>
-      <c r="B133" s="83">
+      <c r="B133" s="52">
         <v>6.5</v>
       </c>
     </row>
@@ -5208,7 +4950,7 @@
       <c r="A134">
         <v>66</v>
       </c>
-      <c r="B134" s="83">
+      <c r="B134" s="52">
         <v>6.6</v>
       </c>
     </row>
@@ -5216,7 +4958,7 @@
       <c r="A135">
         <v>66.5</v>
       </c>
-      <c r="B135" s="83">
+      <c r="B135" s="52">
         <v>6.6</v>
       </c>
     </row>
@@ -5224,7 +4966,7 @@
       <c r="A136">
         <v>67</v>
       </c>
-      <c r="B136" s="83">
+      <c r="B136" s="52">
         <v>6.7</v>
       </c>
     </row>
@@ -5232,7 +4974,7 @@
       <c r="A137">
         <v>67.5</v>
       </c>
-      <c r="B137" s="83">
+      <c r="B137" s="52">
         <v>6.7</v>
       </c>
     </row>
@@ -5240,7 +4982,7 @@
       <c r="A138">
         <v>68</v>
       </c>
-      <c r="B138" s="83">
+      <c r="B138" s="52">
         <v>6.8</v>
       </c>
     </row>
@@ -5248,7 +4990,7 @@
       <c r="A139">
         <v>68.5</v>
       </c>
-      <c r="B139" s="83">
+      <c r="B139" s="52">
         <v>6.8</v>
       </c>
     </row>
@@ -5256,7 +4998,7 @@
       <c r="A140">
         <v>69</v>
       </c>
-      <c r="B140" s="83">
+      <c r="B140" s="52">
         <v>6.9</v>
       </c>
     </row>
@@ -5264,7 +5006,7 @@
       <c r="A141">
         <v>69.5</v>
       </c>
-      <c r="B141" s="83">
+      <c r="B141" s="52">
         <v>6.9</v>
       </c>
     </row>
@@ -5272,7 +5014,7 @@
       <c r="A142">
         <v>70</v>
       </c>
-      <c r="B142" s="83">
+      <c r="B142" s="52">
         <v>7</v>
       </c>
     </row>
@@ -7560,7 +7302,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
     </row>
@@ -7568,7 +7310,7 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="52">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7576,7 +7318,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="52">
         <v>1.2</v>
       </c>
     </row>
@@ -7584,7 +7326,7 @@
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="52">
         <v>1.3</v>
       </c>
     </row>
@@ -7592,7 +7334,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="52">
         <v>1.3</v>
       </c>
     </row>
@@ -7600,7 +7342,7 @@
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="52">
         <v>1.4</v>
       </c>
     </row>
@@ -7608,7 +7350,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="52">
         <v>1.5</v>
       </c>
     </row>
@@ -7616,7 +7358,7 @@
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="52">
         <v>1.6</v>
       </c>
     </row>
@@ -7624,7 +7366,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="52">
         <v>1.7</v>
       </c>
     </row>
@@ -7632,7 +7374,7 @@
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="52">
         <v>1.8</v>
       </c>
     </row>
@@ -7640,7 +7382,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="52">
         <v>1.8</v>
       </c>
     </row>
@@ -7648,7 +7390,7 @@
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="52">
         <v>1.9</v>
       </c>
     </row>
@@ -7656,7 +7398,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="52">
         <v>2</v>
       </c>
     </row>
@@ -7664,7 +7406,7 @@
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="52">
         <v>2.1</v>
       </c>
     </row>
@@ -7672,7 +7414,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="52">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -7680,7 +7422,7 @@
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="52">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -7688,7 +7430,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="52">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -7696,7 +7438,7 @@
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="52">
         <v>2.4</v>
       </c>
     </row>
@@ -7704,7 +7446,7 @@
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="52">
         <v>2.5</v>
       </c>
     </row>
@@ -7712,7 +7454,7 @@
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="83">
+      <c r="B21" s="52">
         <v>2.6</v>
       </c>
     </row>
@@ -7720,7 +7462,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="52">
         <v>2.7</v>
       </c>
     </row>
@@ -7728,7 +7470,7 @@
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="52">
         <v>2.8</v>
       </c>
     </row>
@@ -7736,7 +7478,7 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="52">
         <v>2.8</v>
       </c>
     </row>
@@ -7744,7 +7486,7 @@
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="52">
         <v>2.9</v>
       </c>
     </row>
@@ -7752,7 +7494,7 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="52">
         <v>3</v>
       </c>
     </row>
@@ -7760,7 +7502,7 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="52">
         <v>3.1</v>
       </c>
     </row>
@@ -7768,7 +7510,7 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="83">
+      <c r="B28" s="52">
         <v>3.2</v>
       </c>
     </row>
@@ -7776,7 +7518,7 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="52">
         <v>3.3</v>
       </c>
     </row>
@@ -7784,7 +7526,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="52">
         <v>3.3</v>
       </c>
     </row>
@@ -7792,7 +7534,7 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="52">
         <v>3.4</v>
       </c>
     </row>
@@ -7800,7 +7542,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="52">
         <v>3.5</v>
       </c>
     </row>
@@ -7808,7 +7550,7 @@
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="83">
+      <c r="B33" s="52">
         <v>3.6</v>
       </c>
     </row>
@@ -7816,7 +7558,7 @@
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="83">
+      <c r="B34" s="52">
         <v>3.7</v>
       </c>
     </row>
@@ -7824,7 +7566,7 @@
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="83">
+      <c r="B35" s="52">
         <v>3.8</v>
       </c>
     </row>
@@ -7832,7 +7574,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="83">
+      <c r="B36" s="52">
         <v>3.8</v>
       </c>
     </row>
@@ -7840,7 +7582,7 @@
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="83">
+      <c r="B37" s="52">
         <v>3.9</v>
       </c>
     </row>
@@ -7848,7 +7590,7 @@
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="83">
+      <c r="B38" s="52">
         <v>4</v>
       </c>
     </row>
@@ -7856,7 +7598,7 @@
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="83">
+      <c r="B39" s="52">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -7864,7 +7606,7 @@
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="83">
+      <c r="B40" s="52">
         <v>4.3</v>
       </c>
     </row>
@@ -7872,7 +7614,7 @@
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="52">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7880,7 +7622,7 @@
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="83">
+      <c r="B42" s="52">
         <v>4.5</v>
       </c>
     </row>
@@ -7888,7 +7630,7 @@
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="83">
+      <c r="B43" s="52">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -7896,7 +7638,7 @@
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="83">
+      <c r="B44" s="52">
         <v>4.8</v>
       </c>
     </row>
@@ -7904,7 +7646,7 @@
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="83">
+      <c r="B45" s="52">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -7912,7 +7654,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="83">
+      <c r="B46" s="52">
         <v>5</v>
       </c>
     </row>
@@ -7920,7 +7662,7 @@
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="83">
+      <c r="B47" s="52">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -7928,7 +7670,7 @@
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="83">
+      <c r="B48" s="52">
         <v>5.3</v>
       </c>
     </row>
@@ -7936,7 +7678,7 @@
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="83">
+      <c r="B49" s="52">
         <v>5.4</v>
       </c>
     </row>
@@ -7944,7 +7686,7 @@
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="83">
+      <c r="B50" s="52">
         <v>5.5</v>
       </c>
     </row>
@@ -7952,7 +7694,7 @@
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="83">
+      <c r="B51" s="52">
         <v>5.6</v>
       </c>
     </row>
@@ -7960,7 +7702,7 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="83">
+      <c r="B52" s="52">
         <v>5.8</v>
       </c>
     </row>
@@ -7968,7 +7710,7 @@
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="83">
+      <c r="B53" s="52">
         <v>5.9</v>
       </c>
     </row>
@@ -7976,7 +7718,7 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="83">
+      <c r="B54" s="52">
         <v>6</v>
       </c>
     </row>
@@ -7984,7 +7726,7 @@
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="83">
+      <c r="B55" s="52">
         <v>6.1</v>
       </c>
     </row>
@@ -7992,7 +7734,7 @@
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="83">
+      <c r="B56" s="52">
         <v>6.3</v>
       </c>
     </row>
@@ -8000,7 +7742,7 @@
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="83">
+      <c r="B57" s="52">
         <v>6.4</v>
       </c>
     </row>
@@ -8008,7 +7750,7 @@
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="83">
+      <c r="B58" s="52">
         <v>6.5</v>
       </c>
     </row>
@@ -8016,7 +7758,7 @@
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="83">
+      <c r="B59" s="52">
         <v>6.6</v>
       </c>
     </row>
@@ -8024,7 +7766,7 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="83">
+      <c r="B60" s="52">
         <v>6.8</v>
       </c>
     </row>
@@ -8032,7 +7774,7 @@
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="83">
+      <c r="B61" s="52">
         <v>6.9</v>
       </c>
     </row>
@@ -8040,7 +7782,7 @@
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="83">
+      <c r="B62" s="52">
         <v>7</v>
       </c>
     </row>
@@ -9002,7 +8744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -9013,7 +8755,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
